--- a/data/trans_bre/P1806_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1806_2023-Habitat-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8316817485415067</v>
+        <v>0.8490668407776446</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.4218264471008543</v>
+        <v>0.3762503109836644</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.691018832073659</v>
+        <v>3.714461824751224</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5.969092831949727</v>
+        <v>5.095270587689339</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3897354826459214</v>
+        <v>0.4487704686520836</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.09470967262467034</v>
+        <v>0.1542562934207123</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.732497697849779</v>
+        <v>2.688400975104427</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.310996477904109</v>
+        <v>3.464564412855197</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5425576719550546</v>
+        <v>0.6248824803406333</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.1097104475480335</v>
+        <v>0.07376563807286723</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.982480995443658</v>
+        <v>4.754805890960044</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>2.14090794077702</v>
+        <v>1.913224094515109</v>
       </c>
     </row>
     <row r="13">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>4.61444508766999</v>
+        <v>4.614445087669992</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1.352706638291147</v>
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.881699680638481</v>
+        <v>2.927709419988084</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.608380074519801</v>
+        <v>0.6385036337476003</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.429498102745082</v>
+        <v>6.191972831122334</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.492848660773798</v>
+        <v>2.429471448099532</v>
       </c>
     </row>
     <row r="16">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>2.879737068565238</v>
+        <v>2.879737068565237</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>1.241541697206047</v>
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.117638968035745</v>
+        <v>2.085835668933282</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.7610112501555156</v>
+        <v>0.7145298228348648</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.647284878524836</v>
+        <v>3.641373667667811</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.844253117497517</v>
+        <v>1.823189200097533</v>
       </c>
     </row>
     <row r="19">
